--- a/RQ3/result/GB/GB_12.xlsx
+++ b/RQ3/result/GB/GB_12.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ml\api-diff\label_data\GB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B130567-73CE-481E-881A-392284FF4735}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7B11C-FBAA-42FB-B408-C097342C6620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>number</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -59,18 +59,6 @@
   </si>
   <si>
     <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>why choice this API?</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>If you are not sure of an answer, what is the reason (because the API documentation does not say, or there are no relevant resources on the web, or something else)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>if you solve problem by website, paste the original URL that supports your choice</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -255,40 +243,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Which part do you think spends a lot of time? 1-Understand the problem 2-Use this method to query the time of the question 3-Read and understand the results of the query 4-make a decision</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">cost_time_v2: (tool+doc) </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Because 2 can return all constructors, but 1 can only return public constructors</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>API doc recommend</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/util/Hashtable.html</t>
-  </si>
-  <si>
-    <t>API doc information</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/io/BufferedWriter.html</t>
-  </si>
-  <si>
-    <t>memory</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 can terminate the currently running Java Virtual Machine</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>java.lang.StringBuffer</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -297,32 +251,8 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>https://docs.oracle.com/javase/7/docs/api/java/lang/StringBuilder.html</t>
-  </si>
-  <si>
     <t>java.util.LinkedHashMap</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://docs.oracle.com/javase/8/docs/api/java/util/HashMap.html</t>
-  </si>
-  <si>
-    <t>Web information</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.tutorialspoint.com/jdbc/jdbc-exceptions.htm</t>
-  </si>
-  <si>
-    <t>2 always block</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO code example include</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://stackoverflow.com/questions/16095838/reading-video-data-and-writing-to-another-file-java</t>
   </si>
   <si>
     <t>If we only want to close a Java Swing application when a button is clicked, which method should I use?</t>
@@ -337,7 +267,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,15 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -410,18 +331,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,15 +349,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="20% - 着色 1" xfId="1" builtinId="30"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,10 +665,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9633286-95B1-461A-B199-009C1CB0DEF7}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:X1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -768,15 +682,10 @@
     <col min="7" max="8" width="50.375" style="3" customWidth="1"/>
     <col min="9" max="9" width="49.5" style="3" customWidth="1"/>
     <col min="10" max="10" width="31.375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="21.625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="26.5" style="3" customWidth="1"/>
-    <col min="13" max="13" width="159.125" style="3" customWidth="1"/>
-    <col min="14" max="14" width="69.375" style="3" customWidth="1"/>
-    <col min="15" max="15" width="198" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="3"/>
+    <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -784,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -807,23 +716,8 @@
       <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -831,22 +725,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -854,14 +748,8 @@
       <c r="J2" s="1">
         <v>60</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -869,22 +757,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -892,14 +780,8 @@
       <c r="J3" s="3">
         <v>298</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="O3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -907,22 +789,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -930,17 +812,8 @@
       <c r="J4" s="1">
         <v>330</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O4" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -948,22 +821,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -971,17 +844,8 @@
       <c r="J5" s="3">
         <v>258</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -989,22 +853,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -1012,14 +876,8 @@
       <c r="J6" s="1">
         <v>36</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1027,37 +885,31 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I7" s="6">
+        <v>49</v>
+      </c>
+      <c r="I7" s="5">
         <v>1</v>
       </c>
       <c r="J7" s="3">
         <v>172</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="O7" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1065,22 +917,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -1088,17 +940,8 @@
       <c r="J8" s="1">
         <v>160</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1106,43 +949,31 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I9" s="6">
+        <v>49</v>
+      </c>
+      <c r="I9" s="5">
         <v>2</v>
       </c>
       <c r="J9" s="3">
         <v>339</v>
       </c>
-      <c r="K9" s="3">
-        <v>540</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="N9" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="O9" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1150,22 +981,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1173,17 +1004,8 @@
       <c r="J10" s="1">
         <v>65</v>
       </c>
-      <c r="L10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="O10" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1191,37 +1013,31 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I11" s="6">
+        <v>49</v>
+      </c>
+      <c r="I11" s="5">
         <v>1</v>
       </c>
       <c r="J11" s="3">
         <v>121</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O11" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1229,22 +1045,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1252,17 +1068,8 @@
       <c r="J12" s="1">
         <v>137</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1270,47 +1077,33 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I13" s="6">
+      <c r="I13" s="5">
         <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>29</v>
       </c>
-      <c r="L13" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="O13" s="6">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="N4" r:id="rId1" xr:uid="{D598F9DF-7FE1-1F4B-AD40-207E9478DFB4}"/>
-    <hyperlink ref="N5" r:id="rId2" xr:uid="{2D3D313C-B6DD-A34D-94C2-546B3764A025}"/>
-    <hyperlink ref="N8" r:id="rId3" xr:uid="{11485F51-E5BC-714D-A510-F4FFDCF4F33E}"/>
-    <hyperlink ref="N9" r:id="rId4" xr:uid="{649B19F9-101A-6141-BB50-5F4D647E0D05}"/>
-    <hyperlink ref="N10" r:id="rId5" xr:uid="{B6C5470C-FFD9-7841-A534-28C8AD3DEA18}"/>
-    <hyperlink ref="N12" r:id="rId6" xr:uid="{C5EBAAD0-EB22-7F4D-BF07-1D518537F56F}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/RQ3/result/GB/GB_12.xlsx
+++ b/RQ3/result/GB/GB_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ICSE2020APIComp.github.io\RQ3\result\GB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB7B11C-FBAA-42FB-B408-C097342C6620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4237FC6D-E464-4B83-81E4-8CE8AF1D836E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{0C38CB4F-AEE5-43E9-99FD-92CDCA2F7B25}"/>
   </bookViews>
@@ -58,10 +58,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>cost_time_v1:</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>M</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -260,6 +256,10 @@
   </si>
   <si>
     <t>When developing a JDBC driver, which one should be used if considering the exception chaining mechanism?</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cost_time:</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -668,7 +668,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:X1048576"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -714,7 +714,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -725,22 +725,22 @@
         <v>35251000</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I2" s="1">
         <v>2</v>
@@ -757,22 +757,22 @@
         <v>8249173</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I3" s="3">
         <v>2</v>
@@ -789,22 +789,22 @@
         <v>40471</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -821,22 +821,22 @@
         <v>12350248</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I5" s="3">
         <v>2</v>
@@ -853,22 +853,22 @@
         <v>5484227</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" s="1">
         <v>2</v>
@@ -885,22 +885,22 @@
         <v>13360430</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -917,22 +917,22 @@
         <v>355089</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
@@ -949,22 +949,22 @@
         <v>12998568</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="E9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -981,22 +981,22 @@
         <v>17378108</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H10" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1">
         <v>2</v>
@@ -1013,22 +1013,22 @@
         <v>22458575</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -1045,22 +1045,22 @@
         <v>5155226</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="H12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
@@ -1077,22 +1077,22 @@
         <v>1518103</v>
       </c>
       <c r="C13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>47</v>
-      </c>
       <c r="H13" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="5">
         <v>2</v>
